--- a/Third-Sprint/Artefactos/Tracker de contribucion/Formato.xlsx
+++ b/Third-Sprint/Artefactos/Tracker de contribucion/Formato.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrah\Desktop\Proyectos\Manhattan\Second-Sprint\Artefactos\Tracker de contribucion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrah\Desktop\Proyectos\Manhattan\Third-Sprint\Artefactos\Tracker de contribucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2C696D-6024-4D37-99EB-DBFA241F2EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D69046-E774-4447-9C5E-DA4D3A557238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA140FCA-3ABC-4272-B364-C4EE3A32EBFF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sprint 1'!$B$4:$G$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sprint 1'!$B$4:$G$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Accountables</t>
   </si>
@@ -60,9 +60,6 @@
     <t xml:space="preserve">Armenta Aguilar Adjany </t>
   </si>
   <si>
-    <t xml:space="preserve">Castillo Vallejos Libni Merari </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cetzal Ceme Bryan Emmanuel </t>
   </si>
   <si>
@@ -87,7 +84,7 @@
     <t>Calculus: ((Activities total / activities complete) * 90%) + ((Team mettings attended / total mettings) * 10%)</t>
   </si>
   <si>
-    <t>Contribution tracker - Manhattan - Sprint 2</t>
+    <t>Contribution tracker - Manhattan - Sprint 3</t>
   </si>
 </sst>
 </file>
@@ -569,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5729E5-2C76-4137-A761-6568C0C2099B}">
-  <dimension ref="B2:J15"/>
+  <dimension ref="B2:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,7 +589,7 @@
     <row r="3" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -600,10 +597,10 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="I4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -611,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
@@ -638,24 +635,24 @@
     </row>
     <row r="7" spans="2:10" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2">
         <f>(($D7/$C7)*0.9) + (($E7/$J$4) * 0.1)</f>
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <f>$F7/6</f>
-        <v>0.16666666666666666</v>
+        <f>$F7/5</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -663,21 +660,21 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ref="F8:F12" si="0">(($D8/$C8)*0.9) + (($E8/$J$4) * 0.1)</f>
+        <f t="shared" ref="F8:F11" si="0">(($D8/$C8)*0.9) + (($E8/$J$4) * 0.1)</f>
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" ref="G8:G12" si="1">$F8/6</f>
-        <v>0.16666666666666666</v>
+        <f>$F8/5</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -685,21 +682,21 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>8.0000000000000016E-2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="1"/>
-        <v>1.3333333333333336E-2</v>
+        <f>$F9/5</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -707,26 +704,26 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="1"/>
-        <v>0.16333333333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+        <f>$F10/5</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="19.8" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -735,64 +732,42 @@
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
+        <f>$F11/5</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:B12">
-    <sortCondition ref="B12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:B11">
+    <sortCondition ref="B11"/>
   </sortState>
   <mergeCells count="8">
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:D5"/>
